--- a/physical-flume/physical-lab-velocities.xlsx
+++ b/physical-flume/physical-lab-velocities.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1733764093" val="1222" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1733764093" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1733764093" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1733764093"/>
+      <pm:revision xmlns:pm="smNativeData" day="1733764256" val="1222" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1733764256" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1733764256" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1733764256"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ADV measurements at XS 1 were post-processed with</t>
   </si>
@@ -31,12 +31,6 @@
     <t>https://vectrino-postpro.readthedocs.io</t>
   </si>
   <si>
-    <t>Horizontal main vector</t>
-  </si>
-  <si>
-    <t>3d Velocity vector</t>
-  </si>
-  <si>
     <t>Discharge</t>
   </si>
   <si>
@@ -62,18 +56,6 @@
   </si>
   <si>
     <t>XS</t>
-  </si>
-  <si>
-    <t>U mean</t>
-  </si>
-  <si>
-    <t>U std</t>
-  </si>
-  <si>
-    <t>U3d mean</t>
-  </si>
-  <si>
-    <t>U3d std</t>
   </si>
   <si>
     <t>Q30</t>
@@ -89,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
@@ -99,7 +81,6 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="1" formatCode="0"/>
-    <numFmt numFmtId="3" formatCode="#,##0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -109,7 +90,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1733764093" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1733764256" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -124,7 +105,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1733764093" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1733764256" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -140,7 +121,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1733764093" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1733764256" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -157,7 +138,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1733764093" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1733764256" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -173,7 +154,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1733764093" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1733764256" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -182,26 +163,15 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1733764093" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -217,26 +187,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1733764093"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1733764093"/>
+          <pm:border xmlns:pm="smNativeData" id="1733764256"/>
         </ext>
       </extLst>
     </border>
@@ -269,7 +220,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1733764093" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1733764256" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -533,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J3" sqref="J3:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -555,58 +506,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="10:12">
-      <c r="J3" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>1</v>
@@ -629,7 +560,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>4</v>
@@ -659,7 +590,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>8</v>
@@ -699,7 +630,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1733764093" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1733764256" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -708,14 +639,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1733764093" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1733764093" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1733764256" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1733764256" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1733764093" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1733764256" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
